--- a/Assets/Resources/CSV.data/BossBaseStat.xlsx
+++ b/Assets/Resources/CSV.data/BossBaseStat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>몬스터 이름</t>
   </si>
@@ -68,16 +68,6 @@
   <si>
     <t>몬스터 타입</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_ENEMY</t>
-  </si>
-  <si>
-    <t>PREDATOR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVOKER</t>
   </si>
 </sst>
 </file>
@@ -694,15 +684,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1031,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B6" activeCellId="1" sqref="B11 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1058,153 +1045,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2">
-        <v>29250</v>
-      </c>
-      <c r="D2" s="2">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>100</v>
-      </c>
-      <c r="J2" s="2">
-        <v>300</v>
-      </c>
-      <c r="K2" s="2">
-        <v>300</v>
-      </c>
-      <c r="L2" s="2">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>100</v>
-      </c>
-      <c r="P2" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2">
-        <v>29250</v>
-      </c>
-      <c r="D3" s="2">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>100</v>
-      </c>
-      <c r="J3" s="2">
-        <v>300</v>
-      </c>
-      <c r="K3" s="2">
-        <v>300</v>
-      </c>
-      <c r="L3" s="2">
-        <v>10</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>100</v>
-      </c>
-      <c r="P3" s="2">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
